--- a/production/tmp/data.xlsx
+++ b/production/tmp/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Laporan Data Survey" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,8 @@
     <t>Tangibles</t>
   </si>
   <si>
-    <t xml:space="preserve">Perusahaan memiliki peralatan yang terlihat  canggih dan modern?
+    <t xml:space="preserve">"Perusahaan memiliki peralatan yang terlihat  canggih dan modern?
+"
 </t>
   </si>
   <si>
@@ -83,7 +84,8 @@
     <t>Reliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Bila pelanggan memiliki masalah, perusahaan akan menunjukkan ketulusan untuk menyelesaikannya?
+    <t xml:space="preserve">"Bila pelanggan memiliki masalah, perusahaan akan menunjukkan ketulusan untuk menyelesaikannya?
+"
 </t>
   </si>
   <si>
@@ -97,11 +99,12 @@
     <t>Responsiveness</t>
   </si>
   <si>
-    <t xml:space="preserve">Karyawan perusahaan selalu bersedia membantu nasabah?
+    <t xml:space="preserve">"Karyawan perusahaan selalu bersedia membantu nasabah?
+"
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Untuk dimensi yang memiliki lebih dari satu pertanyaan, silahkan beri nilai tepat di bawah kolom penilaian sebelumnya
+    <t xml:space="preserve">Untuk dimensi yang memiliki lebih dari satu pertanyaan, silahkan beri nilai tepat di bawah kolom penilaian sebelumnya tanpa harus menulis ID Karyawan lagi
 </t>
   </si>
   <si>
@@ -111,7 +114,8 @@
     <t>Assurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Karyawan Garuda Indonesia bersikap sopan kepada pelanggan?
+    <t xml:space="preserve">"Karyawan Garuda Indonesia bersikap sopan kepada pelanggan?
+"
 </t>
   </si>
   <si>
@@ -121,7 +125,8 @@
     <t>Empathy</t>
   </si>
   <si>
-    <t xml:space="preserve">Perusahaan memberi perhatian secara individual kepada pelanggan?
+    <t xml:space="preserve">"Perusahaan memberi perhatian secara individual kepada pelanggan?
+"
 </t>
   </si>
   <si>
@@ -283,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,23 +627,23 @@
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2">
-        <v>546</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="4">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4">
         <v>4</v>
       </c>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>4</v>
-      </c>
-      <c r="N4" s="2">
-        <v>4</v>
+      <c r="N4" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
@@ -660,12 +665,14 @@
       <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -677,7 +684,7 @@
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="4">
@@ -686,12 +693,12 @@
       <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
@@ -710,12 +717,12 @@
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -734,12 +741,12 @@
       <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="2"/>
